--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11900_SPR_Circular.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11900_SPR_Circular.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Bugz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\demoEPBDS-11900\openl-demo\user-workspace\DEFAULT\Calc123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3843F864-0861-4C1D-8782-74A40D0BBCA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5828A052-CEA1-4492-B191-B63E9398C631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="810" windowWidth="20280" windowHeight="13905" xr2:uid="{2537029B-9F26-4B67-AE41-48B403B0EED1}"/>
+    <workbookView xWindow="0" yWindow="1365" windowWidth="28635" windowHeight="14235" xr2:uid="{2537029B-9F26-4B67-AE41-48B403B0EED1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>Spreadsheet SpreadsheetResult someSpr(Integer[] a)</t>
   </si>
@@ -41,123 +42,15 @@
     <t>Vaules</t>
   </si>
   <si>
-    <t>Calc</t>
-  </si>
-  <si>
-    <t>=a+1</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult someSpr2(Integer[] b)</t>
-  </si>
-  <si>
-    <t>=Calc.someSpr(b)</t>
-  </si>
-  <si>
-    <t>=$Calc.someSpr(b)</t>
-  </si>
-  <si>
-    <t>=$Calc(someSpr(b))</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>= new Integer[] {1, 2,3}</t>
-  </si>
-  <si>
-    <t>=sum($Calc(someSpr(b)))</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>preCalc</t>
-  </si>
-  <si>
-    <t>'=(someSpr(b)</t>
-  </si>
-  <si>
-    <t>'=someSpr(b)</t>
-  </si>
-  <si>
-    <t>=sum($Calc($preCalc))</t>
-  </si>
-  <si>
-    <t>=someSpr(b)</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult someSpr2(Integer[] b, SpreadsheetResultsomeSpr sprRes))</t>
-  </si>
-  <si>
-    <t>=sum($Calc(sprRes))</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult someSpr2(Integer[] b, SpreadsheetResultsomeSpr sprRes)</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult someSpr2(Integer[] b, SpreadsheetResultsomeSpr[] sprRes)</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult someSpr2(Integer[] b, SpreadsheetResultsome sprRes)</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult someSpr2(Integer[] b, SpreadsheetResults sprRes)</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult someSpr2(Integer[] b, SpreadsheetResult sprRes)</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult someSpr2(Integer[] b, SpreadsheetResult[] sprRes)</t>
-  </si>
-  <si>
-    <t>=$Calc(sprRes))</t>
-  </si>
-  <si>
-    <t>=$Calc(sprRes)</t>
-  </si>
-  <si>
-    <t>Calc1</t>
-  </si>
-  <si>
     <t>Datatype MyType</t>
   </si>
   <si>
-    <t>Integer[]</t>
-  </si>
-  <si>
-    <t>ints</t>
-  </si>
-  <si>
-    <t>Calc2</t>
-  </si>
-  <si>
-    <t>'= new MyType (</t>
-  </si>
-  <si>
-    <t>'= new MyType ($Calc(sprRes))</t>
-  </si>
-  <si>
-    <t>= new MyType ($Calc(sprRes))</t>
-  </si>
-  <si>
-    <t>=(Integer[])$Calc(sprRes)</t>
-  </si>
-  <si>
-    <t>= $Calc(sprRes)</t>
-  </si>
-  <si>
-    <t>Calc3</t>
-  </si>
-  <si>
     <t>Integer</t>
   </si>
   <si>
     <t>numberOfPeople</t>
   </si>
   <si>
-    <t>=(Integer[])sprRes.$numberOfPeople</t>
-  </si>
-  <si>
     <t>=(Integer)sprRes.$numberOfPeople</t>
   </si>
   <si>
@@ -168,24 +61,451 @@
   </si>
   <si>
     <t>Spreadsheet SpreadsheetResult someSpr2(SpreadsheetResult sprRes)</t>
+  </si>
+  <si>
+    <t>Step1</t>
+  </si>
+  <si>
+    <t>=someSpr(param)</t>
+  </si>
+  <si>
+    <t>Step2</t>
+  </si>
+  <si>
+    <t>=someSpr2($Step1).$TotalNumber</t>
+  </si>
+  <si>
+    <t>Test mainSpr mainSprtest</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>_res_</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>Spreadsheet Double mainSpr(Integer[] param)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Spreadsheet SpreadsheetResult </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+      </rPr>
+      <t>Main</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(String type)</t>
+    </r>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>RateCard</t>
+  </si>
+  <si>
+    <t>= type ==3 ? Child(type) : Swithcher (type)</t>
+  </si>
+  <si>
+    <t>NumberOfLives1</t>
+  </si>
+  <si>
+    <t>= $RateCard.$NumberOfLives + 1</t>
+  </si>
+  <si>
+    <t>TotalVolume1</t>
+  </si>
+  <si>
+    <t>= $RateCard.$TotalVolume + 10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SmartRules SpreadsheetResult </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Swithcher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+      </rPr>
+      <t>(String type )</t>
+    </r>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>= Option1()</t>
+  </si>
+  <si>
+    <t>= Option2()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Spreadsheet SpreadsheetResult </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+      </rPr>
+      <t>Option1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>= Common()</t>
+  </si>
+  <si>
+    <t>NumberOfLives</t>
+  </si>
+  <si>
+    <t>= $RateCard.$NumberOfLives+ 10</t>
+  </si>
+  <si>
+    <t>TotalVolume</t>
+  </si>
+  <si>
+    <t>=  $RateCard.$TotalVolume + 100.10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Spreadsheet SpreadsheetResult </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+      </rPr>
+      <t>Option2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>= $RateCard.$NumberOfLives+ 20</t>
+  </si>
+  <si>
+    <t>=  $RateCard.$TotalVolume + 200.20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Spreadsheet SpreadsheetResult </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+      </rPr>
+      <t>Common</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>= 10</t>
+  </si>
+  <si>
+    <t>= 100.10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Spreadsheet SpreadsheetResult </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+      </rPr>
+      <t>Child</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(String type)</t>
+    </r>
+  </si>
+  <si>
+    <t>= $RateCard.$NumberOfLives+ 30</t>
+  </si>
+  <si>
+    <t>=  $RateCard.$TotalVolume + 300.30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Spreadsheet SpreadsheetResult </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+      </rPr>
+      <t>Left</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(String type)</t>
+    </r>
+  </si>
+  <si>
+    <t>= (SpreadsheetResult) Common()</t>
+  </si>
+  <si>
+    <t>= (Double) $RateCard.$NumberOfLives+ 30</t>
+  </si>
+  <si>
+    <t>=  (Double)  $RateCard.$TotalVolume + 300.30</t>
+  </si>
+  <si>
+    <t>Test Main</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>_res_.$NumberOfLives1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
-      <color theme="1" rgb="000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="FranklinGothic-Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +518,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -208,36 +552,125 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{33ADDBE0-EDB0-4A7D-9ED7-DABC1CC40129}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,24 +981,334 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F997B7CE-3999-43E7-AAC3-8498146EF511}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A8DCA2-7E3A-4869-BACE-4073655B0763}">
+  <dimension ref="B5:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="5"/>
+    <col min="2" max="2" width="29.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="12.5703125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="15">
+      <c r="B5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="2:4" ht="15">
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15">
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15">
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15">
+      <c r="B13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="2:4" ht="15">
+      <c r="B14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="15">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15">
+      <c r="B20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="2:3" ht="15">
+      <c r="B21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15">
+      <c r="B22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15">
+      <c r="B23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15">
+      <c r="B28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="2:3" ht="15">
+      <c r="B29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15">
+      <c r="B30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15">
+      <c r="B31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15">
+      <c r="B39" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="17"/>
+    </row>
+    <row r="40" spans="2:3" ht="15">
+      <c r="B40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15">
+      <c r="B41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="15">
+      <c r="B45" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="17"/>
+    </row>
+    <row r="46" spans="2:3" ht="15">
+      <c r="B46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="15">
+      <c r="B47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15">
+      <c r="B48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="15">
+      <c r="B53" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="17"/>
+    </row>
+    <row r="54" spans="2:3" ht="15">
+      <c r="B54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="15">
+      <c r="B55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="15">
+      <c r="B56" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B45:C45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F997B7CE-3999-43E7-AAC3-8498146EF511}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="D6" t="s">
         <v>1</v>
       </c>
@@ -573,64 +1316,118 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <f> 10</f>
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="14"/>
-    <row r="16">
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <f>10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>9</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20">
-      <c r="B20" t="s" s="0">
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="0" t="s">
-        <v>43</v>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B16:C16"/>
